--- a/UI3/output/log.xlsx
+++ b/UI3/output/log.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>name</t>
   </si>
@@ -557,6 +557,15 @@
   </si>
   <si>
     <t>2018-8-9-19-30</t>
+  </si>
+  <si>
+    <t>190008</t>
+  </si>
+  <si>
+    <t>2019-5-14-20-38</t>
+  </si>
+  <si>
+    <t>2019-5-14-20-39</t>
   </si>
   <si>
     <t>1st right arm horizontal angle (H-close)</t>
@@ -19351,7 +19360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -23316,6 +23325,154 @@
       </c>
       <c r="X50" t="n">
         <v>82.77221981950424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" t="n">
+        <v>54.19774653802344</v>
+      </c>
+      <c r="F51" t="n">
+        <v>165.898141519265</v>
+      </c>
+      <c r="G51" t="n">
+        <v>51.01537904971308</v>
+      </c>
+      <c r="H51" t="n">
+        <v>155.7303555130115</v>
+      </c>
+      <c r="I51" t="n">
+        <v>59.24814398239952</v>
+      </c>
+      <c r="J51" t="n">
+        <v>164.334070134856</v>
+      </c>
+      <c r="K51" t="n">
+        <v>99.13043010609782</v>
+      </c>
+      <c r="L51" t="n">
+        <v>160.7018545462513</v>
+      </c>
+      <c r="M51" t="n">
+        <v>65.89792491905847</v>
+      </c>
+      <c r="N51" t="n">
+        <v>161.666105428346</v>
+      </c>
+      <c r="O51" t="n">
+        <v>54.36143658660198</v>
+      </c>
+      <c r="P51" t="n">
+        <v>168.0916293563137</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>46.71644134538476</v>
+      </c>
+      <c r="R51" t="n">
+        <v>153.8331163269745</v>
+      </c>
+      <c r="S51" t="n">
+        <v>52.47561476544369</v>
+      </c>
+      <c r="T51" t="n">
+        <v>164.185890143982</v>
+      </c>
+      <c r="U51" t="n">
+        <v>64.30438052040734</v>
+      </c>
+      <c r="V51" t="n">
+        <v>159.6786698163881</v>
+      </c>
+      <c r="W51" t="n">
+        <v>54.46446830445944</v>
+      </c>
+      <c r="X51" t="n">
+        <v>161.4473264109146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>135.6898216408823</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>33.92245541022056</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>124.7512132578099</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>31.18780331445248</v>
       </c>
     </row>
   </sheetData>
@@ -23366,64 +23523,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>7</v>
@@ -23521,7 +23678,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>79.48354336377778</v>
@@ -23584,10 +23741,10 @@
         <v>91.32614342195713</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA3" s="5" t="n"/>
       <c r="AB3" s="5" t="n"/>
@@ -23603,7 +23760,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>82.24530229968441</v>
@@ -23666,13 +23823,13 @@
         <v>87.49662610410857</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AB4" s="5" t="n"/>
     </row>
@@ -23687,7 +23844,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>78.27452142459227</v>
@@ -23750,7 +23907,7 @@
         <v>87.32669874906824</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z5" s="5" t="n"/>
       <c r="AA5" s="5" t="n"/>
@@ -23767,7 +23924,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>83.44665593506969</v>
@@ -23830,7 +23987,7 @@
         <v>88.4081668342296</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Z6" s="5" t="n"/>
       <c r="AA6" s="5" t="n"/>
@@ -23847,7 +24004,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>80.40025675080012</v>
@@ -23910,7 +24067,7 @@
         <v>85.5491371302449</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z7" s="5" t="n"/>
       <c r="AA7" s="5" t="n"/>
@@ -23927,7 +24084,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>94.5367922145837</v>
@@ -24068,7 +24225,7 @@
         <v>85.72704112116136</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Z9" s="5" t="n"/>
       <c r="AA9" s="5" t="n"/>
@@ -24085,7 +24242,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>91.6248985326587</v>
@@ -24241,7 +24398,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>97.74242719083165</v>
@@ -24319,7 +24476,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>94.42284017615998</v>
@@ -24397,7 +24554,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>92.36256436556693</v>
@@ -24475,7 +24632,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>96.02658290932527</v>
@@ -24553,7 +24710,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>90.85300658916992</v>
@@ -24631,7 +24788,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>93.77624536777444</v>
@@ -24709,7 +24866,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>112.0508898491695</v>
@@ -24772,16 +24929,16 @@
         <v>87.80823738261583</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:441">
@@ -24795,7 +24952,7 @@
         <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -24858,142 +25015,142 @@
         <v>23.10213782512674</v>
       </c>
       <c r="Y19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Z19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AB19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AC19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AD19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AE19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AF19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AH19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AI19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AJ19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AK19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AL19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AP19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AQ19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AR19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AS19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AT19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AU19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AV19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AW19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AX19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AY19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AZ19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BA19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BB19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BC19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BD19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BE19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BF19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BG19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BH19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BI19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BJ19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BK19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BL19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BM19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BN19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BO19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BP19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BQ19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BR19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BS19" t="s">
         <v>15</v>
@@ -25010,7 +25167,7 @@
         <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25073,457 +25230,457 @@
         <v>22.45008470232402</v>
       </c>
       <c r="Y20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Z20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AB20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AC20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AD20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AE20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AF20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AH20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AI20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AJ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AK20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AL20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AP20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AQ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AR20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AS20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AT20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AU20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AV20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AW20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AX20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AY20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AZ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BA20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BB20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BC20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BD20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BE20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BF20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BG20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BH20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BI20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BJ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BK20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BL20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BM20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BN20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BO20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BP20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BQ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BR20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BS20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BT20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BU20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BV20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BW20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BX20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BY20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BZ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CA20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CB20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CC20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CD20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CE20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CF20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CG20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CJ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CK20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CL20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CM20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CN20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CO20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CP20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CQ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CR20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CS20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CT20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CU20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CV20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CW20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CX20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CY20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CZ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DA20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DB20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DC20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DD20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DE20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DF20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DG20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DH20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DI20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DJ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DK20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DL20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DM20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DN20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DO20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DP20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DQ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DR20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DS20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DT20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DU20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DV20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DW20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DX20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DY20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="DZ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EA20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EB20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EC20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="ED20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EE20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EF20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EG20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EH20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EI20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EJ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EK20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EL20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EM20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EN20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EO20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EP20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EQ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="ER20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="ES20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="ET20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EU20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EV20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EW20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EX20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EY20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EZ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FA20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FB20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FC20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FD20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FE20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FF20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FG20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FH20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FI20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FJ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FK20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FL20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FM20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FN20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FO20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FP20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FQ20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FR20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FS20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="FT20" t="s">
         <v>15</v>
@@ -25540,7 +25697,7 @@
         <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E21" t="n">
         <v>79.72030458102201</v>
@@ -25603,937 +25760,937 @@
         <v>85.92807682674703</v>
       </c>
       <c r="Y21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Z21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AB21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AC21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AD21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AE21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AH21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AI21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AJ21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AK21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AP21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AR21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AS21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AT21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AU21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AV21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AW21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AX21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AY21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BA21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BB21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BC21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BD21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BE21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BF21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BG21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BH21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BI21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BJ21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BK21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BL21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BM21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BN21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BO21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BP21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BQ21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BR21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BS21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BT21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BU21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BV21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BW21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BX21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BY21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BZ21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CA21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CB21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CC21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CD21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CE21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CF21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CG21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CJ21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CK21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CL21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CM21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CN21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CO21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CP21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CQ21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CR21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CS21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CT21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CU21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CV21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CW21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CX21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CY21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CZ21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DA21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DB21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DC21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DD21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DE21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DF21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DG21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DH21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DI21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DJ21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DK21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DL21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DM21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DN21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DO21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DP21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DQ21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DR21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DS21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DT21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DU21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DV21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DW21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DX21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DY21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DZ21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EA21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EB21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EC21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="ED21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EE21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EF21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EG21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EH21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EI21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EJ21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EK21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EL21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EM21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EN21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EO21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="EP21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="EQ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="ER21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="ES21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="ET21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="EU21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="EV21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="EW21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="EX21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="EY21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="EZ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FA21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FB21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FC21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FD21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FE21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FF21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FG21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FH21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FI21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FJ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FK21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FL21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FM21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FN21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FO21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FP21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FQ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FR21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FS21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FT21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FU21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FV21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FW21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FX21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FY21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="FZ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GA21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GB21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GC21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GD21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GE21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GF21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GG21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GH21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GI21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GJ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GK21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GL21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GM21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GN21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GO21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GP21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GQ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GR21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GS21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GT21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GU21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GV21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GW21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GX21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GY21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="GZ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HA21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HB21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HC21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HD21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HE21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HF21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HG21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HH21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HI21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HJ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HK21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HL21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HM21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HN21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HO21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HP21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HQ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HR21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HS21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HT21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HU21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HV21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HW21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HX21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HY21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="HZ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IA21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IB21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IC21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="ID21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IE21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IF21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IG21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IH21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="II21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IJ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IK21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IL21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IM21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IN21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IO21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IP21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IQ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IR21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IS21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IT21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IU21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IV21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IW21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IX21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IY21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="IZ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JA21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JB21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JC21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JD21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JE21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JF21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JG21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JH21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JI21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JJ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JK21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JL21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JM21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JN21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JO21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JP21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JQ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JR21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JS21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JT21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JU21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JV21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JW21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JX21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JY21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="JZ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KA21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KB21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KC21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KD21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KE21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KF21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KG21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KH21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KI21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KJ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KK21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KL21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KM21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KN21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KO21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KP21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KQ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KR21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KS21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KT21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KU21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KV21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KW21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KX21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KY21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="KZ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LA21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LB21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LC21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LD21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LE21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LF21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LG21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LH21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LI21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LJ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LK21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LL21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LM21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LN21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LO21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LP21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LQ21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LR21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LS21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LT21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LU21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LV21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="LW21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:441">
@@ -26547,7 +26704,7 @@
         <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E22" t="n">
         <v>98.01578621156197</v>
@@ -26610,229 +26767,229 @@
         <v>88.17153315480974</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Z22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AC22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AD22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AE22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AF22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AH22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AI22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AJ22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AP22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AQ22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AR22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AS22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AT22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AU22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AV22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AW22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AX22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AY22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AZ22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BA22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BB22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BC22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BD22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BE22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BF22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BG22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BH22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BI22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BJ22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BK22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BL22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BM22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BN22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BO22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BP22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BQ22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BR22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BS22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BT22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BU22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BV22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BW22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BX22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BY22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BZ22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CA22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CB22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CC22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CD22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CE22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CF22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CG22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CH22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CI22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CJ22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CK22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CL22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CM22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CN22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CO22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CP22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CQ22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CR22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CS22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CT22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CU22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:441">
@@ -26846,7 +27003,7 @@
         <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E23" t="n">
         <v>97.10440269205594</v>
@@ -26909,1255 +27066,1255 @@
         <v>86.38255017267593</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AB23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AC23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AD23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AE23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AH23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AI23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AJ23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AK23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AN23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AP23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AQ23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AR23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AS23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AT23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AU23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AV23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AW23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AX23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AY23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AZ23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BA23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BB23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BC23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BD23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BE23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BF23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BG23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BH23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BI23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BJ23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BK23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BL23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BM23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BN23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BO23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BP23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BQ23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BR23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BS23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BT23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BU23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BV23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BW23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BX23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BY23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BZ23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CA23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CB23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CC23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CD23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CE23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CF23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CG23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CH23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CJ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CK23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CL23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CM23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CN23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CO23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CP23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CQ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CR23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CS23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CT23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CU23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CV23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CW23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CX23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CY23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CZ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DA23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DB23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DC23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DD23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DE23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DF23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DG23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DH23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DI23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DJ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DK23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DL23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DM23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DN23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DO23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DP23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DQ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DR23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DS23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DT23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DU23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DV23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DW23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DX23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DY23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="DZ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EA23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EB23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EC23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="ED23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EE23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EF23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EG23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EH23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EI23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EJ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EK23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EL23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EM23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EN23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EO23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EP23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EQ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="ER23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="ES23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="ET23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EU23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EV23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EW23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EX23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EY23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="EZ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FA23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FB23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FC23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FD23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FE23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FF23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FG23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FH23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FI23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FJ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FK23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FL23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FM23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FN23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FO23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FP23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FQ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FR23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FS23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FT23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FU23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FV23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FW23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FX23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FY23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="FZ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GA23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GB23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GC23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GD23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GE23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GF23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GG23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GH23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GI23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GJ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GK23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GL23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GM23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GN23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GO23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GP23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GQ23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GR23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="GS23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GT23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GU23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GV23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GW23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GX23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GY23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="GZ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HA23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HB23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HC23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HD23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HE23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HF23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HG23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HH23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HI23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HJ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HK23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HL23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HM23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HN23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HO23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HP23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HQ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HR23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HS23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HT23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HU23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HV23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HW23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HX23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HY23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="HZ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IA23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IB23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IC23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="ID23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IE23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IF23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IG23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IH23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="II23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IJ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IK23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IL23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IM23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IN23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IO23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IP23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IQ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IR23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IS23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IT23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IU23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IV23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IW23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IX23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IY23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="IZ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JA23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JB23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JC23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JD23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JE23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JF23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JG23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JH23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JI23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JJ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JK23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JL23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JM23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JN23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JO23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JP23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JQ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JR23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JS23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JT23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JU23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JV23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JW23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JX23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JY23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="JZ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KA23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KB23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KC23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KD23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KE23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KF23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KG23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KH23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KI23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KJ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KK23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KL23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KM23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KN23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KO23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KP23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KQ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KR23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KS23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KT23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KU23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KV23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KW23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KX23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KY23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="KZ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LA23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LB23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LC23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LD23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LE23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LF23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LG23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LH23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LI23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LJ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LK23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LL23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LM23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LN23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LO23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LP23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LQ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LR23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LS23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LT23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LU23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LV23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LW23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LX23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LY23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="LZ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MA23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MB23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MC23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MD23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="ME23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MF23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MG23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MH23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MI23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MJ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MK23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="ML23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MM23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MN23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MO23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MP23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MQ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MR23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MS23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MT23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MU23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MV23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MW23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MX23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MY23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="MZ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NA23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NB23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NC23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="ND23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NE23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NF23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NG23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NH23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NI23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NJ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NK23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NL23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NM23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NN23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NO23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NP23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NQ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NR23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NS23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NT23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NU23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NV23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NW23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NX23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NY23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="NZ23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="OA23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="OB23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="OC23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="OD23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OE23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OF23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OG23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OH23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OI23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OJ23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OK23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OL23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OM23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="ON23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OO23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OP23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OQ23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OR23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OS23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OT23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OU23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OV23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OW23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OX23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OY23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="OZ23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PA23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PB23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PC23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PD23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PE23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PF23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PG23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PH23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PI23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PJ23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PK23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PL23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PM23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PN23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PO23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PP23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PQ23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PR23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PS23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PT23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PU23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PV23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PW23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PX23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="PY23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -28206,16 +28363,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -28259,7 +28416,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>56.45808363844621</v>
@@ -28286,7 +28443,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>75.96804163571966</v>
@@ -28313,7 +28470,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>74.17253495014347</v>
@@ -28340,7 +28497,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>87.11160290239135</v>
@@ -28367,7 +28524,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>69.53850178149507</v>
@@ -28394,7 +28551,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>76.06204348691926</v>
@@ -28421,7 +28578,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>75.92552651947972</v>
@@ -28448,7 +28605,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>50.10120672662079</v>
@@ -28475,7 +28632,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>70.87711997452779</v>
@@ -28502,7 +28659,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>67.18410127706257</v>
@@ -28529,7 +28686,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>60.467415340964</v>
@@ -28585,10 +28742,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -28626,7 +28783,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>153</v>
@@ -28647,7 +28804,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>153</v>
@@ -28668,7 +28825,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>173</v>
@@ -28689,7 +28846,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>163</v>
@@ -28710,7 +28867,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>101</v>
@@ -28731,7 +28888,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>143</v>
@@ -28752,7 +28909,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>52</v>
@@ -28773,7 +28930,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>77</v>
@@ -28794,7 +28951,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>96</v>
@@ -28815,7 +28972,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>89</v>
@@ -28836,7 +28993,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>108</v>
@@ -28857,7 +29014,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>68</v>
@@ -28911,13 +29068,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -28958,7 +29115,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>5.8</v>
@@ -28979,10 +29136,10 @@
         <v>190008</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>4.266666666666667</v>
@@ -29003,10 +29160,10 @@
         <v>190008</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>4.166666666666667</v>
@@ -29030,7 +29187,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>6.1</v>
@@ -29054,7 +29211,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>5</v>
@@ -29078,7 +29235,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>4.833333333333333</v>
@@ -29102,7 +29259,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>17.93333333333333</v>
@@ -29126,7 +29283,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>3.766666666666667</v>
@@ -29150,7 +29307,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>4.133333333333334</v>
@@ -29174,7 +29331,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>2.866666666666667</v>
@@ -29198,7 +29355,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>2.366666666666667</v>
@@ -29222,7 +29379,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>2.7</v>
@@ -29246,7 +29403,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>4</v>
@@ -29270,7 +29427,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>3.433333333333333</v>
@@ -29294,7 +29451,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>3.233333333333333</v>
@@ -29318,7 +29475,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>3.033333333333333</v>
@@ -29342,7 +29499,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>6.033333333333333</v>
@@ -29366,7 +29523,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>4.8</v>
@@ -29390,7 +29547,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>5.233333333333333</v>
@@ -29414,7 +29571,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>2.466666666666667</v>
@@ -29438,7 +29595,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>6.566666666666666</v>
@@ -29462,7 +29619,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>3.1</v>
